--- a/src/assets/downloads/OpenEnzymeDatabase-ContributionTemplate-1.0.0.xlsx
+++ b/src/assets/downloads/OpenEnzymeDatabase-ContributionTemplate-1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjberry/Projects/OpenEnzymeDB-frontend/src/assets/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76FACEC-49B6-0640-99D2-34F10ECE392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9389A9E-E1C0-1A4E-90A4-3D77E65125CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12760" yWindow="9840" windowWidth="26180" windowHeight="15860" xr2:uid="{A211E642-6450-B943-8DAE-4028FCB8D425}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Open Enzyme Database</t>
   </si>
   <si>
-    <t>To upload your completed form, follow the instructions at https://openenzymedb.platform.moleculemaker.org/about/get_involved.</t>
-  </si>
-  <si>
     <t>For any questions or suggestions, please email us at oed-feedback@moleculemaker.org.</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
       </rPr>
       <t xml:space="preserve"> - On this tab, please enter the data you would like to contribute to the OED. Note the fields for each type of kinetic data correspond to the column headsing of the experimental data tables in the OED, with the same units.</t>
     </r>
+  </si>
+  <si>
+    <t>To upload your completed form, follow the instructions at https://openenzymedb.platform.moleculemaker.org/about/get-involved.</t>
   </si>
 </sst>
 </file>
@@ -237,11 +237,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,67 +597,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="11" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>4</v>
+      <c r="A16" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -684,27 +683,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -724,57 +723,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/downloads/OpenEnzymeDatabase-ContributionTemplate-1.0.0.xlsx
+++ b/src/assets/downloads/OpenEnzymeDatabase-ContributionTemplate-1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjberry/Projects/OpenEnzymeDB-frontend/src/assets/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9389A9E-E1C0-1A4E-90A4-3D77E65125CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D90A473-547C-DF4B-BC88-E35975807DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12760" yWindow="9840" windowWidth="26180" windowHeight="15860" xr2:uid="{A211E642-6450-B943-8DAE-4028FCB8D425}"/>
   </bookViews>
@@ -154,6 +154,9 @@
     </r>
   </si>
   <si>
+    <t>To upload your completed form, follow the instructions at https://openenzymedb.platform.moleculemaker.org/about/get-involved.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -171,11 +174,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - On this tab, please enter the data you would like to contribute to the OED. Note the fields for each type of kinetic data correspond to the column headsing of the experimental data tables in the OED, with the same units.</t>
+      <t xml:space="preserve"> - On this tab, please enter the data you would like to contribute to the OED. Note the fields for each type of kinetic data correspond to the column heading of the experimental data tables in the OED, with the same units.</t>
     </r>
-  </si>
-  <si>
-    <t>To upload your completed form, follow the instructions at https://openenzymedb.platform.moleculemaker.org/about/get-involved.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="191.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
     </row>
     <row r="9" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="34" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
     </row>
     <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">

--- a/src/assets/downloads/OpenEnzymeDatabase-ContributionTemplate-1.0.0.xlsx
+++ b/src/assets/downloads/OpenEnzymeDatabase-ContributionTemplate-1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjberry/Projects/OpenEnzymeDB-frontend/src/assets/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D90A473-547C-DF4B-BC88-E35975807DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B7B7D-B2F5-2B48-908B-3424E8D6AFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12760" yWindow="9840" windowWidth="26180" windowHeight="15860" xr2:uid="{A211E642-6450-B943-8DAE-4028FCB8D425}"/>
   </bookViews>
@@ -120,27 +120,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Overview</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - This is the tab you area currently viewing. It provides instructions on using the workbook. There is nothing for you to enter on this tab.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Metadata</t>
     </r>
     <r>
@@ -175,6 +154,27 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - On this tab, please enter the data you would like to contribute to the OED. Note the fields for each type of kinetic data correspond to the column heading of the experimental data tables in the OED, with the same units.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Overview</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - This is the tab you are currently viewing. It provides instructions on using the workbook. There is nothing for you to enter on this tab.</t>
     </r>
   </si>
 </sst>
@@ -587,7 +587,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="191.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,17 +621,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="34" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
     </row>
     <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
